--- a/docs/uc_page_htmls/downloaded_excels/UC567-payment_details.xlsx
+++ b/docs/uc_page_htmls/downloaded_excels/UC567-payment_details.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,6 +642,438 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UC567-1293</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27 Jan 2026, 07:24 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>UC567-1279</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26 Jan 2026, 12:20 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UC567-1292</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25 Jan 2026, 03:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UC567-1276</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 12:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UC567-1268</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 06:08 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>UC567-1271</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>254.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 11:54 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>UC567-1274</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 11:54 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>UC567-1264</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>19 Jan 2026, 07:03 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>UC567-1247</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>506.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>18 Jan 2026, 08:27 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UC567-1257</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>18 Jan 2026, 05:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>UC567-1236</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>18 Jan 2026, 03:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2785</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>18 Jan 2026, 02:44 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>UC567-1242</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>18 Jan 2026, 01:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UC567-1239</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>17 Jan 2026, 07:52 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UC567-1243</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>17 Jan 2026, 07:52 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UC567-1198</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1905.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>17 Jan 2026, 03:13 PM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/uc_page_htmls/downloaded_excels/UC567-payment_details.xlsx
+++ b/docs/uc_page_htmls/downloaded_excels/UC567-payment_details.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UC567-1186</t>
+          <t>UC567-1318</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UPI / Wallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>31 Jan 2026, 01:54 PM</t>
+          <t>31 Jan 2026, 02:07 PM</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UC567-1289</t>
+          <t>UC567-1132</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>31 Jan 2026, 01:53 PM</t>
+          <t>31 Jan 2026, 01:56 PM</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UC567-1293</t>
+          <t>UC567-1186</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -525,12 +525,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>797</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27 Jan 2026, 07:24 PM</t>
+          <t>31 Jan 2026, 01:54 PM</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,535 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>UC567-1289</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31 Jan 2026, 01:53 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UC567-1312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31 Jan 2026, 01:20 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>UC567-1277</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6343</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31 Jan 2026, 12:21 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UC567-1240</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 12:05 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UC567-1293</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27 Jan 2026, 07:24 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>UC567-1279</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26 Jan 2026, 12:20 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UC567-1292</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25 Jan 2026, 03:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UC567-1276</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 12:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>UC567-1268</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>UPI / Wallet</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>453</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>21 Jan 2026, 06:08 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>UC567-1271</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>254.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 11:54 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>UC567-1274</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 11:54 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>UC567-1264</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>19 Jan 2026, 07:03 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>UC567-1247</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>506.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>18 Jan 2026, 08:27 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UC567-1257</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>18 Jan 2026, 05:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>UC567-1236</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>18 Jan 2026, 03:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2785</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>18 Jan 2026, 02:44 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>UC567-1242</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>18 Jan 2026, 01:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UC567-1239</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>17 Jan 2026, 07:52 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UC567-1243</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>17 Jan 2026, 07:52 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UC567-1198</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1905.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>17 Jan 2026, 03:13 PM</t>
         </is>
       </c>
     </row>
